--- a/biology/Médecine/Injury_Severity_Score/Injury_Severity_Score.xlsx
+++ b/biology/Médecine/Injury_Severity_Score/Injury_Severity_Score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le score de gravité des blessures (ISS pour Injury Severity Score) est un score médical établi pour évaluer la gravité des traumatismes[1],[2]. Il est corrélé avec la mortalité, la morbidité et le temps d'hospitalisation après un traumatisme. Il est utilisé pour définir le terme de traumatisme majeur. Un traumatisme majeur (ou polytraumatisme) est défini par un score de gravité des blessures supérieur à 15. Le comité AIS de l'Association pour l'avancement de la médecine automobile (AAAM) a conçu et amélioré cette échelle.
+Le score de gravité des blessures (ISS pour Injury Severity Score) est un score médical établi pour évaluer la gravité des traumatismes,. Il est corrélé avec la mortalité, la morbidité et le temps d'hospitalisation après un traumatisme. Il est utilisé pour définir le terme de traumatisme majeur. Un traumatisme majeur (ou polytraumatisme) est défini par un score de gravité des blessures supérieur à 15. Le comité AIS de l'Association pour l'avancement de la médecine automobile (AAAM) a conçu et amélioré cette échelle.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Échelle abrégée des blessures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'échelle abrégée des blessures (ou AIS pour Abbreviated Injury Scale) est un système de notation de la gravité globale fondé sur un consensus anatomique qui classe chaque blessure dans chaque région du corps en fonction de sa gravité relative sur une échelle ordinale à six points :
 Mineur
@@ -558,7 +572,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ISS est basé (voir ci-dessous) sur l'échelle abrégée des blessures (AIS). Pour calculer l'ISS pour une personne blessée, le corps est divisé en six régions. Ces régions du corps sont :
 Tête ou cou – y compris la colonne cervicale
@@ -567,7 +583,7 @@
 Contenu abdominal ou pelvien – organes abdominaux et colonne lombaire
 Extrémités ou ceinture pelvienne – squelette pelvien
 Peau
-Pour calculer un ISS, prenez le code de gravité AIS le plus élevé dans chacune des trois régions du corps les plus gravement blessées, mettez chaque code AIS au carré et ajoutez les trois nombres au carré pour un ISS ( ISS = A2 + B2 + C2  où A, B, C sont les scores AIS des trois régions du corps de l'ISS les plus blessées). Les scores ISS vont de 3 à 75 (c'est-à-dire que le score AIS va de 1 à 5 pour chaque catégorie). Si l'un des trois scores est un 6, le score est automatiquement fixé à 75. Étant donné qu'un score à 6 (incurable) indique la futilité de soins médicaux supplémentaires pour préserver la vie, cela peut signifier l'arrêt des soins supplémentaires lors du triage pour un patient avec un score de 6 dans n'importe quelle catégorie[3].
+Pour calculer un ISS, prenez le code de gravité AIS le plus élevé dans chacune des trois régions du corps les plus gravement blessées, mettez chaque code AIS au carré et ajoutez les trois nombres au carré pour un ISS ( ISS = A2 + B2 + C2  où A, B, C sont les scores AIS des trois régions du corps de l'ISS les plus blessées). Les scores ISS vont de 3 à 75 (c'est-à-dire que le score AIS va de 1 à 5 pour chaque catégorie). Si l'un des trois scores est un 6, le score est automatiquement fixé à 75. Étant donné qu'un score à 6 (incurable) indique la futilité de soins médicaux supplémentaires pour préserver la vie, cela peut signifier l'arrêt des soins supplémentaires lors du triage pour un patient avec un score de 6 dans n'importe quelle catégorie.
 </t>
         </is>
       </c>
